--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1362415.519721287</v>
+        <v>-1364313.751825411</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>164.8939498391914</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>285.4629420845033</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>160.6097923907213</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>106.0113025783317</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.7731772608512</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.820368920756621</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>141.5531628498604</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>157.9760822845539</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.7066665474637</v>
+        <v>54.54548707014979</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>274.6068378834963</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>45.0922313807085</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>144.0731271501069</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>43.03801681746202</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>60.83190844218957</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.16765894089225</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>10.60084241516291</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.90300047225685</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8942143424671</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>244.1738878213213</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>116.7095425323963</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>100.614764221199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.56452900498746</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>141.2807981293844</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373652</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539634</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1271.984870679801</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.984870679801</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>913.7191720730509</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>913.7191720730509</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.984870679801</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.2572191628421</v>
+        <v>323.8491837470517</v>
       </c>
       <c r="C4" t="n">
-        <v>161.0251056368611</v>
+        <v>323.8491837470517</v>
       </c>
       <c r="D4" t="n">
-        <v>161.0251056368611</v>
+        <v>323.8491837470517</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>175.9360901646585</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>323.2572191628421</v>
+        <v>726.2902277208215</v>
       </c>
       <c r="W4" t="n">
-        <v>323.2572191628421</v>
+        <v>726.2902277208215</v>
       </c>
       <c r="X4" t="n">
-        <v>323.2572191628421</v>
+        <v>726.2902277208215</v>
       </c>
       <c r="Y4" t="n">
-        <v>323.2572191628421</v>
+        <v>505.4976485772913</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2554.166098240586</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2554.166098240586</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2300.404312878677</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1969.341425535107</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.341425535107</v>
+        <v>2151.485713917717</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.875667274027</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.5813018857447</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.5813018857447</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.712458167646</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>891.4467595608955</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>505.6585069626513</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>498.7130062134478</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>484.7896021520388</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2475.42389486703</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2122.655239596916</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2122.655239596916</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>582.6005729437002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>303.4575213834697</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5209,40 +5209,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1455.443526297839</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1455.443526297839</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1166.314887511397</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>911.6303993055099</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>622.2132292685493</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,10 +5279,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>242.5343297994525</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.2953582963255</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C16" t="n">
-        <v>640.3591753684186</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D16" t="n">
-        <v>490.2425359560829</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E16" t="n">
-        <v>342.3294423736897</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>342.3294423736897</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>174.1541206935104</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2953582963255</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>809.2953582963255</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y16" t="n">
-        <v>809.2953582963255</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6642370999739</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C19" t="n">
-        <v>402.728054172067</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1409.115259979865</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.195249895417</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>985.4098346849231</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141521</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="X19" t="n">
-        <v>792.456816243504</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="Y19" t="n">
-        <v>571.6642370999739</v>
+        <v>696.2811958984813</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3055067228584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1105.163720733589</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1105.163720733589</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>815.7465506966282</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X22" t="n">
-        <v>815.7465506966282</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.9539715530981</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,49 +5990,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395484</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.9365816937665</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C25" t="n">
-        <v>514.9365816937665</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609669</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W25" t="n">
-        <v>696.5850465240062</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X25" t="n">
-        <v>696.5850465240062</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.5850465240062</v>
+        <v>943.2631727657036</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1132.42297844904</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>1132.42297844904</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W28" t="n">
-        <v>843.0058084120794</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X28" t="n">
-        <v>615.0162575140621</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y28" t="n">
-        <v>394.223678370532</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6476,22 +6476,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311522</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6634,13 +6634,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011336</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N33" t="n">
-        <v>1296.555866665166</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O33" t="n">
-        <v>1966.019627967826</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2486.320249703573</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2392.657822921639</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,7 +7175,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>539.5926371926334</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>846.9127704725951</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>806.1650729342605</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
@@ -7552,10 +7552,10 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7655,19 +7655,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>816.7950850315606</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1124.115218311522</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>15.83804904622875</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>253.7371603504736</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>297.3877236703346</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>18.73797368291338</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>285.1031356539323</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.88923345256772</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>5.100663089359642</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>9.900512684484795</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>285.1031356539322</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.637028707906582</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>24.6478707620801</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>154.8827931661412</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520957</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>119.0000717397477</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>72.74616942664387</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>138.0146306030495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>21.06135193153594</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>94.34313805611026</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>42.3491105152697</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>63.12243764954097</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>48.00070879701333</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>108.9290394583901</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>144.9565542691929</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.186961971048731e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122046.6412035809</v>
+        <v>122046.641203581</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>117308.7179213126</v>
@@ -26329,16 +26329,16 @@
         <v>117308.7179213126</v>
       </c>
       <c r="H2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="I2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="J2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371251</v>
       </c>
     </row>
     <row r="4">
@@ -26433,10 +26433,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26448,16 +26448,16 @@
         <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="O4" t="n">
-        <v>37464.45686275956</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703333.0276387485</v>
+        <v>-703351.5213766828</v>
       </c>
       <c r="C6" t="n">
         <v>-116477.7708349896</v>
       </c>
       <c r="D6" t="n">
-        <v>-116477.7708349897</v>
+        <v>-116477.7708349896</v>
       </c>
       <c r="E6" t="n">
-        <v>-514884.3141257392</v>
+        <v>-514981.7732517114</v>
       </c>
       <c r="F6" t="n">
-        <v>10275.72235115682</v>
+        <v>10178.26322518465</v>
       </c>
       <c r="G6" t="n">
-        <v>10275.72235115684</v>
+        <v>10178.2632251847</v>
       </c>
       <c r="H6" t="n">
-        <v>10275.7223511568</v>
+        <v>10178.26322518467</v>
       </c>
       <c r="I6" t="n">
-        <v>10275.72235115679</v>
+        <v>10178.2632251847</v>
       </c>
       <c r="J6" t="n">
-        <v>-166147.4968414361</v>
+        <v>-166244.9559674084</v>
       </c>
       <c r="K6" t="n">
-        <v>-66528.80930685505</v>
+        <v>-66528.80930685491</v>
       </c>
       <c r="L6" t="n">
-        <v>-12023.29720314244</v>
+        <v>-12023.29720314247</v>
       </c>
       <c r="M6" t="n">
         <v>-146824.3124369796</v>
       </c>
       <c r="N6" t="n">
+        <v>-12023.29720314243</v>
+      </c>
+      <c r="O6" t="n">
         <v>-12023.29720314247</v>
       </c>
-      <c r="O6" t="n">
-        <v>-12023.29720314244</v>
-      </c>
       <c r="P6" t="n">
-        <v>-66528.80930685502</v>
+        <v>-66528.80930685494</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,16 +26756,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>217.8398918242892</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>121.4131036572081</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>40.42266006823752</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>250.3172744030714</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>32.86254995911111</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>191.2648864328591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.87798680463106</v>
+        <v>164.039166281945</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>49.31593488086088</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>282.6600270894264</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>17.88169127836775</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>81.63652823893023</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34132,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>166.413487634168</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056025</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>146.7850892314815</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>564.1615374009399</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>504.4811386018593</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>598.8335596281407</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>351.9325470809263</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36695,7 +36695,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>595.5275127043988</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.9022662376418</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>254.358368045384</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>259.1582176405092</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>534.3608406099567</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
